--- a/UUV_server-adaptive/excel/adaptive.xlsx
+++ b/UUV_server-adaptive/excel/adaptive.xlsx
@@ -18,14 +18,54 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+  <si>
+    <t>adaptive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>offspring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use next model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +154,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +189,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +371,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.77369942236523503</v>
+      </c>
+      <c r="C3">
+        <v>0.80892652909670104</v>
+      </c>
+      <c r="D3">
+        <v>0.97385871241441901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.79287432101097999</v>
+      </c>
+      <c r="C4">
+        <v>0.89878918314353595</v>
+      </c>
+      <c r="D4">
+        <v>0.974356114022361</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0.91882643871555003</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0.99993653170916696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.878438246778531</v>
+      </c>
+      <c r="C5">
+        <v>0.89459906529772804</v>
+      </c>
+      <c r="D5">
+        <v>0.97987902520318404</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0.930333131641227</v>
+      </c>
+      <c r="H5">
+        <v>0.99783651281389596</v>
+      </c>
+      <c r="I5">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.86202589377507299</v>
+      </c>
+      <c r="C6">
+        <v>0.76078104788581602</v>
+      </c>
+      <c r="D6">
+        <v>0.97970010761113502</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0.90699833486846504</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.779258602826291</v>
+      </c>
+      <c r="C7">
+        <v>0.90152714175607096</v>
+      </c>
+      <c r="D7">
+        <v>0.97473098802587199</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0.89817883862175396</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.78393694605381903</v>
+      </c>
+      <c r="C8">
+        <v>0.83339344014841799</v>
+      </c>
+      <c r="D8">
+        <v>0.97330235863221304</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0.93130685237453903</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.88678731717481296</v>
+      </c>
+      <c r="C9">
+        <v>0.74359002813943498</v>
+      </c>
+      <c r="D9">
+        <v>0.967803438762182</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0.87221254318837504</v>
+      </c>
+      <c r="H9">
+        <v>0.99182586720130195</v>
+      </c>
+      <c r="I9">
+        <v>0.99844278496121097</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.898135637596991</v>
+      </c>
+      <c r="C10">
+        <v>0.99978386184230295</v>
+      </c>
+      <c r="D10">
+        <v>0.99908387787980601</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0.89813563771887805</v>
+      </c>
+      <c r="H10">
+        <v>0.99978386178798895</v>
+      </c>
+      <c r="I10">
+        <v>0.999083877905523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.89797191506519203</v>
+      </c>
+      <c r="C11">
+        <v>0.87362783870140404</v>
+      </c>
+      <c r="D11">
+        <v>0.98178124705369096</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0.90060239584897805</v>
+      </c>
+      <c r="H11">
+        <v>0.99994837857103702</v>
+      </c>
+      <c r="I11">
+        <v>0.99940831244572403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.89002421813898502</v>
+      </c>
+      <c r="C12">
+        <v>0.83505004190573096</v>
+      </c>
+      <c r="D12">
+        <v>0.97928965877831098</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0.93596778480349596</v>
+      </c>
+      <c r="H12">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.92435798250617496</v>
+      </c>
+      <c r="C16">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0.93546738987320899</v>
+      </c>
+      <c r="C17">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0.85393886473815905</v>
+      </c>
+      <c r="C18">
+        <v>0.84815598433288297</v>
+      </c>
+      <c r="D18">
+        <v>0.98047274021870001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>0.91026481221660904</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>0.75106583716391895</v>
+      </c>
+      <c r="C20">
+        <v>0.90290878426158405</v>
+      </c>
+      <c r="D20">
+        <v>0.997394206210092</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>0.85869208202777303</v>
+      </c>
+      <c r="C21">
+        <v>0.96560889260679195</v>
+      </c>
+      <c r="D21">
+        <v>0.97769811589078004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.85793078470484796</v>
+      </c>
+      <c r="C27">
+        <v>0.94722931178900405</v>
+      </c>
+      <c r="D27">
+        <v>0.97592714196803898</v>
+      </c>
+      <c r="K27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0.84661048521954796</v>
+      </c>
+      <c r="C28">
+        <v>0.79022810319969505</v>
+      </c>
+      <c r="D28">
+        <v>0.99153248576155595</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>0.90723407468844597</v>
+      </c>
+      <c r="H28">
+        <v>0.99916537661022697</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0.75117625124738496</v>
+      </c>
+      <c r="L28">
+        <v>0.884815525164239</v>
+      </c>
+      <c r="M28">
+        <v>0.87845242973568805</v>
+      </c>
+      <c r="O28">
+        <v>0.94281493544472295</v>
+      </c>
+      <c r="P28">
+        <v>0.80054086365978705</v>
+      </c>
+      <c r="Q28">
+        <v>0.99926316162846596</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0.78385066928298697</v>
+      </c>
+      <c r="C29">
+        <v>0.93016472847328202</v>
+      </c>
+      <c r="D29">
+        <v>0.98941466601460204</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>0.90320959119545796</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0.85389824893047495</v>
+      </c>
+      <c r="L29">
+        <v>0.72988522523344301</v>
+      </c>
+      <c r="M29">
+        <v>0.99923969306109695</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/UUV_server-adaptive/excel/adaptive.xlsx
+++ b/UUV_server-adaptive/excel/adaptive.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>adaptive</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +47,14 @@
   </si>
   <si>
     <t>use next model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nnfit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,10,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,8 +382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -851,4 +860,396 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.79299722402146799</v>
+      </c>
+      <c r="C3">
+        <v>0.80783835326130404</v>
+      </c>
+      <c r="D3">
+        <v>0.97809329197123696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.74669640266104997</v>
+      </c>
+      <c r="C4">
+        <v>0.74729525562921895</v>
+      </c>
+      <c r="D4">
+        <v>0.96980591234945401</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>0.81625651824501599</v>
+      </c>
+      <c r="H4">
+        <v>0.99682839424735503</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3.5314348916290102E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.54525712207100396</v>
+      </c>
+      <c r="M4">
+        <v>0.98228674606083899</v>
+      </c>
+      <c r="O4">
+        <v>0.34595119910343097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.57866559563284203</v>
+      </c>
+      <c r="C5">
+        <v>0.77597936566389802</v>
+      </c>
+      <c r="D5">
+        <v>0.98817021060785304</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0.86006439028400605</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>-0.30797225679880802</v>
+      </c>
+      <c r="L5">
+        <v>0.184666296409942</v>
+      </c>
+      <c r="M5">
+        <v>0.97233809885994504</v>
+      </c>
+      <c r="O5">
+        <v>0.84201874079164796</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.72122374193555505</v>
+      </c>
+      <c r="C6">
+        <v>0.90511262575917795</v>
+      </c>
+      <c r="D6">
+        <v>0.96809363444549401</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0.844282568554232</v>
+      </c>
+      <c r="H6">
+        <v>0.98635030865879703</v>
+      </c>
+      <c r="I6">
+        <v>0.99481015528035899</v>
+      </c>
+      <c r="K6">
+        <v>0.36736027580144698</v>
+      </c>
+      <c r="L6">
+        <v>0.82767521250644205</v>
+      </c>
+      <c r="M6">
+        <v>0.98739239345112695</v>
+      </c>
+      <c r="O6">
+        <v>0.31159707063425501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.90261530993167605</v>
+      </c>
+      <c r="C7">
+        <v>0.696617700132382</v>
+      </c>
+      <c r="D7">
+        <v>0.95391057298601201</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>0.89474544336569295</v>
+      </c>
+      <c r="H7">
+        <v>0.98811678212198595</v>
+      </c>
+      <c r="I7">
+        <v>0.99887775501023801</v>
+      </c>
+      <c r="K7">
+        <v>-0.36571834918000101</v>
+      </c>
+      <c r="L7">
+        <v>0.72741286568804897</v>
+      </c>
+      <c r="M7">
+        <v>1.0209500454212399</v>
+      </c>
+      <c r="O7">
+        <v>0.888006880493039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.71092781751553902</v>
+      </c>
+      <c r="C8">
+        <v>0.754228375483744</v>
+      </c>
+      <c r="D8">
+        <v>0.97363474466994204</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>0.85703862236736605</v>
+      </c>
+      <c r="H8">
+        <v>0.996057587964714</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1.2300210905881501E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.67978491441634803</v>
+      </c>
+      <c r="M8">
+        <v>1.01527060508219</v>
+      </c>
+      <c r="O8">
+        <v>0.69007971497050402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.72279125525270604</v>
+      </c>
+      <c r="C9">
+        <v>0.86895187048522604</v>
+      </c>
+      <c r="D9">
+        <v>0.97516051241749802</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>0.87324131812850203</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.61552945541175597</v>
+      </c>
+      <c r="L9">
+        <v>0.16254222434478999</v>
+      </c>
+      <c r="M9">
+        <v>0.91561617375159299</v>
+      </c>
+      <c r="O9">
+        <v>0.437023227922612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.73124092415619402</v>
+      </c>
+      <c r="C10">
+        <v>0.81870075127277697</v>
+      </c>
+      <c r="D10">
+        <v>0.97137439582489304</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>0.83752385907990501</v>
+      </c>
+      <c r="H10">
+        <v>0.99997892554568502</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.144789367961386</v>
+      </c>
+      <c r="L10">
+        <v>0.55689912980024203</v>
+      </c>
+      <c r="M10">
+        <v>1.0113552980104299</v>
+      </c>
+      <c r="O10">
+        <v>0.372839901731989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.78153889734544602</v>
+      </c>
+      <c r="C11">
+        <v>0.725931031538256</v>
+      </c>
+      <c r="D11">
+        <v>0.96251271218095003</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>0.82356224970430902</v>
+      </c>
+      <c r="H11">
+        <v>0.99653750327713897</v>
+      </c>
+      <c r="I11">
+        <v>0.99964762510843597</v>
+      </c>
+      <c r="K11">
+        <v>0.28803163305845902</v>
+      </c>
+      <c r="L11">
+        <v>0.47359657999259103</v>
+      </c>
+      <c r="M11">
+        <v>0.98815685303660294</v>
+      </c>
+      <c r="O11">
+        <v>0.64254935068552199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.73253394858777698</v>
+      </c>
+      <c r="C12">
+        <v>0.76923590819988197</v>
+      </c>
+      <c r="D12">
+        <v>0.97098053009456697</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>0.85569879239600199</v>
+      </c>
+      <c r="H12">
+        <v>0.996442317554743</v>
+      </c>
+      <c r="I12">
+        <v>0.99997616959064295</v>
+      </c>
+      <c r="K12">
+        <v>0.64063548992834896</v>
+      </c>
+      <c r="L12">
+        <v>0.92830166598612196</v>
+      </c>
+      <c r="M12">
+        <v>0.95010474151971003</v>
+      </c>
+      <c r="O12">
+        <v>0.37484216369172502</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>